--- a/data/trans_dic/P1414-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1414-Habitat-trans_dic.xlsx
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001519836964389828</v>
+        <v>0.001512255853858763</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00142497721298948</v>
+        <v>0.001945276196571095</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02231142098624234</v>
+        <v>0.02250567871614229</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02474514362821026</v>
+        <v>0.02526942389588413</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02466685400162731</v>
+        <v>0.02366583717420753</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01160588054792593</v>
+        <v>0.01177028910026128</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01454664652653864</v>
+        <v>0.01445560915861938</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01439002769038951</v>
+        <v>0.01450374815241794</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.007649527691825034</v>
+        <v>0.009873346652651962</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01262535107778434</v>
+        <v>0.01264452929258969</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01954055712496282</v>
+        <v>0.02019923821191326</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04974337740326681</v>
+        <v>0.05007259810862181</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05561438771400649</v>
+        <v>0.05467476477138535</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04367071710627504</v>
+        <v>0.04256666578872678</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02696373897628753</v>
+        <v>0.02649553350791163</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03012708177680857</v>
+        <v>0.03132449426492492</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0264085849773793</v>
+        <v>0.02672899803825876</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0009914501704667686</v>
+        <v>0.0009883102595075023</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0009990568797216377</v>
+        <v>0.0009942669955789552</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01265259068116948</v>
+        <v>0.01271960953484818</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02666147531476807</v>
+        <v>0.02654086650830922</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03578115481913546</v>
+        <v>0.03615063947440404</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007492615896059453</v>
+        <v>0.007468492904697102</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01488814343203506</v>
+        <v>0.01530310329980964</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01876595721397156</v>
+        <v>0.01848057182157735</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.008899078187722993</v>
+        <v>0.008534908068827755</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.008785897737073011</v>
+        <v>0.009673603785502763</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.005479437764273735</v>
+        <v>0.004922200829729689</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03132435587948444</v>
+        <v>0.03079361870556818</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05196229728736802</v>
+        <v>0.05341792363461003</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05506949490285945</v>
+        <v>0.05589419052118725</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01744790238234803</v>
+        <v>0.01726453413366721</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02797108302925443</v>
+        <v>0.02810823317376333</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02883165366498237</v>
+        <v>0.02896878820877062</v>
       </c>
     </row>
     <row r="10">
@@ -899,25 +899,25 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001110733799731508</v>
+        <v>0.001106286626991231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01238199995797546</v>
+        <v>0.01180351573046926</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02077256371545418</v>
+        <v>0.02225895836785674</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0246972507513323</v>
+        <v>0.0246323254581868</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006821742100529994</v>
+        <v>0.006260973247522418</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01185323716377597</v>
+        <v>0.01191039123055375</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01383611666410566</v>
+        <v>0.01436396427923967</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.006891744898499464</v>
+        <v>0.007771124841880054</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.009172723993544773</v>
+        <v>0.009342066765301483</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01257068893191903</v>
+        <v>0.01224042462071158</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03533936950618963</v>
+        <v>0.03653843828764441</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04656795755039683</v>
+        <v>0.04954416888290336</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04716204693033809</v>
+        <v>0.04527800028104752</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01921169130631106</v>
+        <v>0.01827537868543875</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02571553422739523</v>
+        <v>0.02627132763256297</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02520904101600805</v>
+        <v>0.02617243619407142</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.005904557768021932</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.004856682328839933</v>
+        <v>0.004856682328839932</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.03002909273102919</v>
@@ -982,7 +982,7 @@
         <v>0.03279975082948181</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.05028283204038956</v>
+        <v>0.05028283204038955</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.01679876883885077</v>
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00211807017792884</v>
+        <v>0.002114343201547611</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00197823527191118</v>
+        <v>0.001882729448712514</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02042701187834966</v>
+        <v>0.02159914379826061</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02221952828266269</v>
+        <v>0.02357653631526518</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04079180921947539</v>
+        <v>0.04062996367933306</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01116008218664485</v>
+        <v>0.01200419285526369</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01467896935267813</v>
+        <v>0.01460966812157329</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02346674858213308</v>
+        <v>0.02322312850965742</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.007806145026537981</v>
+        <v>0.00752717160970823</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01314411633753264</v>
+        <v>0.01450829657076037</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01186897515343105</v>
+        <v>0.01130941858653547</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0428806369853907</v>
+        <v>0.04265623774209028</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04529005909953787</v>
+        <v>0.04629711160363362</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06137260029465193</v>
+        <v>0.06269005423466073</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02333052586790834</v>
+        <v>0.02350236127205796</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02775559804173948</v>
+        <v>0.02740527509374435</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03561068360858038</v>
+        <v>0.03567227101759913</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.004138586461645745</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.004188988346218044</v>
+        <v>0.004188988346218045</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.02610782992261705</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0009179831695049705</v>
+        <v>0.0009172648221282471</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00237301787293677</v>
+        <v>0.002402462093083077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0024497651310508</v>
+        <v>0.002240306028318301</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02086508708477759</v>
+        <v>0.02064985319876697</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02934984007914337</v>
+        <v>0.02944684492822989</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03690687715610168</v>
+        <v>0.03702557464572784</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01156168232511557</v>
+        <v>0.01146217686593146</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01671081536291657</v>
+        <v>0.01701826085527816</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02065809261121276</v>
+        <v>0.02076133452034648</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.00433333070919853</v>
+        <v>0.004487461141664699</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.007190930876288585</v>
+        <v>0.00731319194410314</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.007208260936682797</v>
+        <v>0.006987857390882377</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03166870819318109</v>
+        <v>0.03211161865515254</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04154414927234137</v>
+        <v>0.04231941153435369</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04710526989040408</v>
+        <v>0.04729783000905444</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01755341501983893</v>
+        <v>0.01742135899156947</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0236901268061255</v>
+        <v>0.02379546228855667</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02668600576319236</v>
+        <v>0.02633293895339732</v>
       </c>
     </row>
     <row r="19">
@@ -1402,28 +1402,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>984</v>
+        <v>1344</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15552</v>
+        <v>15688</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16649</v>
+        <v>17002</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18015</v>
+        <v>17284</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16254</v>
+        <v>16485</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>19604</v>
+        <v>19481</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>20449</v>
+        <v>20610</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5381</v>
+        <v>6946</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8520</v>
+        <v>8533</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13497</v>
+        <v>13952</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>34674</v>
+        <v>34903</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>37420</v>
+        <v>36787</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>31894</v>
+        <v>31087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>37763</v>
+        <v>37107</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>40600</v>
+        <v>42214</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>37527</v>
+        <v>37983</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13019</v>
+        <v>13088</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>27806</v>
+        <v>27680</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>38146</v>
+        <v>38540</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15337</v>
+        <v>15287</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>30749</v>
+        <v>31606</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>39664</v>
+        <v>39061</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9059</v>
+        <v>8688</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8983</v>
+        <v>9891</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5740</v>
+        <v>5156</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>32232</v>
+        <v>31686</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>54192</v>
+        <v>55710</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>58709</v>
+        <v>59588</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>35714</v>
+        <v>35339</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>57770</v>
+        <v>58053</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>60939</v>
+        <v>61229</v>
       </c>
     </row>
     <row r="12">
@@ -1693,25 +1693,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9623</v>
+        <v>9173</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>16307</v>
+        <v>17474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19895</v>
+        <v>19843</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10470</v>
+        <v>9609</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18308</v>
+        <v>18396</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>22215</v>
+        <v>23063</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5221</v>
+        <v>5888</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6967</v>
+        <v>7096</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10057</v>
+        <v>9793</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>27465</v>
+        <v>28397</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>36556</v>
+        <v>38893</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37992</v>
+        <v>36474</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29486</v>
+        <v>28049</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>39719</v>
+        <v>40578</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>40475</v>
+        <v>42022</v>
       </c>
     </row>
     <row r="16">
@@ -1834,28 +1834,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1952</v>
+        <v>1858</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>21467</v>
+        <v>22699</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>23192</v>
+        <v>24609</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>45454</v>
+        <v>45274</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>22305</v>
+        <v>23992</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>29084</v>
+        <v>28947</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>49310</v>
+        <v>48798</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7398</v>
+        <v>7134</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12323</v>
+        <v>13603</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11715</v>
+        <v>11162</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>45065</v>
+        <v>44829</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>47273</v>
+        <v>48324</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>68387</v>
+        <v>69855</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>46630</v>
+        <v>46974</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>54993</v>
+        <v>54299</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>74828</v>
+        <v>74957</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8055</v>
+        <v>8155</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8636</v>
+        <v>7898</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>74157</v>
+        <v>73392</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>104032</v>
+        <v>104376</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>137156</v>
+        <v>137597</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>80711</v>
+        <v>80016</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>115955</v>
+        <v>118088</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>149596</v>
+        <v>150343</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14849</v>
+        <v>15378</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>24409</v>
+        <v>24824</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>25411</v>
+        <v>24634</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>112555</v>
+        <v>114129</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>147255</v>
+        <v>150003</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>175055</v>
+        <v>175771</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>122539</v>
+        <v>121617</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>164383</v>
+        <v>165114</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>193247</v>
+        <v>190690</v>
       </c>
     </row>
     <row r="24">
